--- a/data/RLIe_GET_L3.xlsx
+++ b/data/RLIe_GET_L3.xlsx
@@ -531,7 +531,7 @@
         <v>0.34</v>
       </c>
       <c r="G5">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -983,10 +983,10 @@
         <v>0.6454545454545455</v>
       </c>
       <c r="F18">
-        <v>0.5863636363636364</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="G18">
-        <v>0.7045454545454546</v>
+        <v>0.7060606060606061</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>0.5681818181818181</v>
       </c>
       <c r="G19">
-        <v>0.6924242424242424</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>0.5681818181818181</v>
       </c>
       <c r="G20">
-        <v>0.693939393939394</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1088,10 +1088,10 @@
         <v>0.6303030303030304</v>
       </c>
       <c r="F21">
-        <v>0.5681818181818181</v>
+        <v>0.5696969696969697</v>
       </c>
       <c r="G21">
-        <v>0.6909469696969691</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>0.9421052631578948</v>
       </c>
       <c r="F22">
-        <v>0.8789473684210526</v>
+        <v>0.8842105263157894</v>
       </c>
       <c r="G22">
         <v>0.9894736842105263</v>
@@ -1158,7 +1158,7 @@
         <v>0.9421052631578948</v>
       </c>
       <c r="F23">
-        <v>0.8842105263157894</v>
+        <v>0.8789473684210526</v>
       </c>
       <c r="G23">
         <v>0.9894736842105263</v>
@@ -1193,7 +1193,7 @@
         <v>0.9263157894736842</v>
       </c>
       <c r="F24">
-        <v>0.8578947368421053</v>
+        <v>0.8631578947368421</v>
       </c>
       <c r="G24">
         <v>0.9842105263157894</v>
@@ -1228,7 +1228,7 @@
         <v>0.9263157894736842</v>
       </c>
       <c r="F25">
-        <v>0.8578947368421053</v>
+        <v>0.8631578947368421</v>
       </c>
       <c r="G25">
         <v>0.9842105263157894</v>
@@ -1298,7 +1298,7 @@
         <v>0.8149253731343283</v>
       </c>
       <c r="F27">
-        <v>0.7461940298507462</v>
+        <v>0.7462686567164178</v>
       </c>
       <c r="G27">
         <v>0.8805970149253731</v>
@@ -1336,7 +1336,7 @@
         <v>0.7343283582089553</v>
       </c>
       <c r="G28">
-        <v>0.8717164179104467</v>
+        <v>0.8746268656716418</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1368,10 +1368,10 @@
         <v>0.8059701492537313</v>
       </c>
       <c r="F29">
-        <v>0.7343283582089553</v>
+        <v>0.7373134328358208</v>
       </c>
       <c r="G29">
-        <v>0.8716417910447761</v>
+        <v>0.8746268656716418</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1438,10 +1438,10 @@
         <v>0.8240000000000001</v>
       </c>
       <c r="F31">
-        <v>0.7573333333333333</v>
+        <v>0.76</v>
       </c>
       <c r="G31">
-        <v>0.8853333333333333</v>
+        <v>0.888</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>0.8240000000000001</v>
       </c>
       <c r="F32">
-        <v>0.7626666666666666</v>
+        <v>0.7573333333333333</v>
       </c>
       <c r="G32">
-        <v>0.888</v>
+        <v>0.8853333333333333</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1508,10 +1508,10 @@
         <v>0.8133333333333334</v>
       </c>
       <c r="F33">
-        <v>0.7466666666666666</v>
+        <v>0.7493333333333334</v>
       </c>
       <c r="G33">
-        <v>0.8747333333333324</v>
+        <v>0.8773333333333333</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>0.9206349206349207</v>
       </c>
       <c r="F38">
-        <v>0.8634920634920635</v>
+        <v>0.8603174603174604</v>
       </c>
       <c r="G38">
         <v>0.9714285714285714</v>
@@ -1753,7 +1753,7 @@
         <v>0.9079365079365079</v>
       </c>
       <c r="F40">
-        <v>0.8412698412698413</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="G40">
         <v>0.9650793650793651</v>
@@ -1788,7 +1788,7 @@
         <v>0.9079365079365079</v>
       </c>
       <c r="F41">
-        <v>0.8476190476190476</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="G41">
         <v>0.9650793650793651</v>

--- a/data/RLIe_GET_L3.xlsx
+++ b/data/RLIe_GET_L3.xlsx
@@ -1021,7 +1021,7 @@
         <v>0.5681818181818181</v>
       </c>
       <c r="G19">
-        <v>0.6909090909090909</v>
+        <v>0.6924242424242424</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1088,10 +1088,10 @@
         <v>0.6303030303030304</v>
       </c>
       <c r="F21">
-        <v>0.5696969696969697</v>
+        <v>0.5681818181818181</v>
       </c>
       <c r="G21">
-        <v>0.6909090909090909</v>
+        <v>0.6924242424242424</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>0.9421052631578948</v>
       </c>
       <c r="F22">
-        <v>0.8842105263157894</v>
+        <v>0.8789473684210526</v>
       </c>
       <c r="G22">
         <v>0.9894736842105263</v>
@@ -1228,7 +1228,7 @@
         <v>0.9263157894736842</v>
       </c>
       <c r="F25">
-        <v>0.8631578947368421</v>
+        <v>0.8578947368421053</v>
       </c>
       <c r="G25">
         <v>0.9842105263157894</v>
@@ -1263,7 +1263,7 @@
         <v>0.8507462686567164</v>
       </c>
       <c r="F26">
-        <v>0.7850746268656716</v>
+        <v>0.7820895522388059</v>
       </c>
       <c r="G26">
         <v>0.9134328358208955</v>
@@ -1298,7 +1298,7 @@
         <v>0.8149253731343283</v>
       </c>
       <c r="F27">
-        <v>0.7462686567164178</v>
+        <v>0.7432835820895523</v>
       </c>
       <c r="G27">
         <v>0.8805970149253731</v>
@@ -1333,7 +1333,7 @@
         <v>0.8059701492537313</v>
       </c>
       <c r="F28">
-        <v>0.7343283582089553</v>
+        <v>0.7373134328358208</v>
       </c>
       <c r="G28">
         <v>0.8746268656716418</v>
@@ -1368,7 +1368,7 @@
         <v>0.8059701492537313</v>
       </c>
       <c r="F29">
-        <v>0.7373134328358208</v>
+        <v>0.7343283582089553</v>
       </c>
       <c r="G29">
         <v>0.8746268656716418</v>
@@ -1441,7 +1441,7 @@
         <v>0.76</v>
       </c>
       <c r="G31">
-        <v>0.888</v>
+        <v>0.88</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>0.8240000000000001</v>
       </c>
       <c r="F32">
-        <v>0.7573333333333333</v>
+        <v>0.76</v>
       </c>
       <c r="G32">
         <v>0.8853333333333333</v>
@@ -1508,7 +1508,7 @@
         <v>0.8133333333333334</v>
       </c>
       <c r="F33">
-        <v>0.7493333333333334</v>
+        <v>0.744</v>
       </c>
       <c r="G33">
         <v>0.8773333333333333</v>
@@ -1788,7 +1788,7 @@
         <v>0.9079365079365079</v>
       </c>
       <c r="F41">
-        <v>0.8412698412698413</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="G41">
         <v>0.9650793650793651</v>

--- a/data/RLIe_GET_L3.xlsx
+++ b/data/RLIe_GET_L3.xlsx
@@ -983,10 +983,10 @@
         <v>0.6454545454545455</v>
       </c>
       <c r="F18">
-        <v>0.5833333333333333</v>
+        <v>0.5848484848484848</v>
       </c>
       <c r="G18">
-        <v>0.7060606060606061</v>
+        <v>0.7075757575757575</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1018,10 +1018,10 @@
         <v>0.6303030303030304</v>
       </c>
       <c r="F19">
-        <v>0.5681818181818181</v>
+        <v>0.5696969696969697</v>
       </c>
       <c r="G19">
-        <v>0.6924242424242424</v>
+        <v>0.693939393939394</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1053,10 +1053,10 @@
         <v>0.6303030303030304</v>
       </c>
       <c r="F20">
-        <v>0.5681818181818181</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="G20">
-        <v>0.6909090909090909</v>
+        <v>0.6893939393939394</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>0.5681818181818181</v>
       </c>
       <c r="G21">
-        <v>0.6924242424242424</v>
+        <v>0.693939393939394</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>0.8507462686567164</v>
       </c>
       <c r="F26">
-        <v>0.7820895522388059</v>
+        <v>0.7850746268656716</v>
       </c>
       <c r="G26">
         <v>0.9134328358208955</v>
@@ -1298,7 +1298,7 @@
         <v>0.8149253731343283</v>
       </c>
       <c r="F27">
-        <v>0.7432835820895523</v>
+        <v>0.7462686567164178</v>
       </c>
       <c r="G27">
         <v>0.8805970149253731</v>
@@ -1333,7 +1333,7 @@
         <v>0.8059701492537313</v>
       </c>
       <c r="F28">
-        <v>0.7373134328358208</v>
+        <v>0.7343283582089553</v>
       </c>
       <c r="G28">
         <v>0.8746268656716418</v>
@@ -1371,7 +1371,7 @@
         <v>0.7343283582089553</v>
       </c>
       <c r="G29">
-        <v>0.8746268656716418</v>
+        <v>0.8716417910447761</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>0.792</v>
       </c>
       <c r="G30">
-        <v>0.904</v>
+        <v>0.9066666666666666</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>0.76</v>
       </c>
       <c r="G31">
-        <v>0.88</v>
+        <v>0.8853333333333333</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>0.76</v>
       </c>
       <c r="G32">
-        <v>0.8853333333333333</v>
+        <v>0.8826666666666667</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1508,10 +1508,10 @@
         <v>0.8133333333333334</v>
       </c>
       <c r="F33">
-        <v>0.744</v>
+        <v>0.7466666666666666</v>
       </c>
       <c r="G33">
-        <v>0.8773333333333333</v>
+        <v>0.8746666666666667</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>0.9206349206349207</v>
       </c>
       <c r="F38">
-        <v>0.8603174603174604</v>
+        <v>0.8634920634920635</v>
       </c>
       <c r="G38">
         <v>0.9714285714285714</v>
